--- a/USE-CASE MODEL (e-Book Store).xlsx
+++ b/USE-CASE MODEL (e-Book Store).xlsx
@@ -96,9 +96,6 @@
     <t>Permitir visualização do repositório de e-books da livraria, descrição das obras e acesso limitado ao primeiro capítulo de cada obra selecionada, podendo então a obra ser adquirida ou não, seja ela paga ou gratuita, seja da própria loja ou de autoria de outro usuário.</t>
   </si>
   <si>
-    <t>Permitir e oferecer o recurso para que quaisquer dos livros visualizados pelo usuário possa ser compartilhado através do facebook e twitter, independente de ter sido adquirido, e permitir comentário do usuário a respeito da referida obra neste mesmo compartilhamento (respeitadas e aceitas as políticas de privacidade das respectivas plataformas).</t>
-  </si>
-  <si>
     <t>Compartilhamento</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Na transação de venda/compra de obras de autoria de usuários cadastrados, cobrar 10% de taxa sobre o preço de venda, e repassá-la à e-Book Store, a cada transação efetivada.</t>
   </si>
   <si>
-    <t>Permitir que o comprador visualize online e/ou faça o download da obra adquirida, através de seu histórico de compras ou aquisições gratuitas.</t>
-  </si>
-  <si>
     <t>Oferecer ao usuário, na visualização de estoques (próprios ou da loja), meios distintos de ordenação das obras, a serem redefinidos pelo usuário a qualquer momento. Permitir ordenação por número de compras (ou aquisições gratuitas) por terceiros; por número de avaliações positivas e recomendações compartilhadas quanto à obra; por preço (crescente ou decrescente); por gratuidade ou não da obra.</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Encaminhar casos omissos ou não solucionados à direção e ao setor jurídico da empresa antes de ser dada qualquer resposta negativa ao cliente.</t>
   </si>
   <si>
-    <t>Fazer o registro e informar ao cliente o número de protocolo, bem como conferir acesso a este e ao histórico de suas reclamações e respectivas gravações até 90 dias anteriores.</t>
-  </si>
-  <si>
     <t>Gestão de Estoque</t>
   </si>
   <si>
@@ -232,6 +223,15 @@
   </si>
   <si>
     <t>(Requisitos funcionais, nomes de casos de uso e atores, diagrama de UC, etc.)</t>
+  </si>
+  <si>
+    <t>Permitir e oferecer o recurso para que quaisquer dos livros visualizados pelo usuário possa ter seu endereço eletrônico compartilhado através do facebook e twitter, independente de ter sido adquirido, e permitir comentário do usuário a respeito da referida obra neste mesmo compartilhamento, a fim de que outras pessoas, ao se interessarem por esta, possam visualizá-la na e-Books Store após devido cadastro (respeitadas e aceitas as políticas de privacidade das respectivas plataformas).</t>
+  </si>
+  <si>
+    <t>Permitir que o comprador visualize online e/ou faça o download da obra adquirida, através de seu histórico de compras e de aquisições gratuitas.</t>
+  </si>
+  <si>
+    <t>Fazer o registro e informar ao cliente o número de protocolo, bem como conferir acesso a este e ao histórico de suas reclamações e respectivas gravações até 90 dias anteriores ao registro do evento.</t>
   </si>
 </sst>
 </file>
@@ -354,6 +354,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -367,9 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,18 +687,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="5"/>
@@ -706,11 +706,11 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="18.75">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="7"/>
@@ -719,7 +719,7 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -754,18 +754,18 @@
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="105">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="135">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="75">
@@ -773,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60">
@@ -784,10 +784,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60">
@@ -806,10 +806,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60">
@@ -817,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45">
@@ -828,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120">
@@ -839,10 +839,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -850,10 +850,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
@@ -861,10 +861,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45">
@@ -872,10 +872,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
@@ -883,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -894,10 +894,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="75">
@@ -916,10 +916,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45">
@@ -927,10 +927,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
@@ -938,10 +938,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -971,7 +971,7 @@
     </row>
     <row r="32" spans="1:4" ht="21">
       <c r="A32" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -979,120 +979,120 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>67</v>
+      <c r="A42" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:5">

--- a/USE-CASE MODEL (e-Book Store).xlsx
+++ b/USE-CASE MODEL (e-Book Store).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Visualização de estoque</t>
   </si>
   <si>
-    <t>Visualização de livro adquirido</t>
-  </si>
-  <si>
     <t>Após efetivada a cobrança, no caso de obras pagas, ou sem cobrança, no caso de obras gratuitas, notificar à loja, ao vendedor (loja ou cliente) e ao comprador a conclusão da transação de aquisição.</t>
   </si>
   <si>
@@ -144,15 +141,9 @@
     <t>Permitir a gestão de estoques próprios de clientes pelo próprio cliente autor, seja na adição, edição ou exclusão de itens em seu repositório próprio na loja.</t>
   </si>
   <si>
-    <t>Encaminhar ao setor de estoque da e-Book Store as sugestões de clientes.</t>
-  </si>
-  <si>
     <t>Integrar o SPT e SIG ao setor de estoque da e-Book Store, a fim de conferir acesso deste a ambos.</t>
   </si>
   <si>
-    <t>Permitir comunicação e registros de solicitações ou reclamações de clientes com os vários setores da empresa, diretamente ao setor de estoque ou indiretamente à administração superior e direção através do SAC e ouvidoria.</t>
-  </si>
-  <si>
     <t>Encaminhar casos omissos ou não solucionados à direção e ao setor jurídico da empresa antes de ser dada qualquer resposta negativa ao cliente.</t>
   </si>
   <si>
@@ -198,21 +189,6 @@
     <t>Ator(es)</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Cliente, Gestor de estoque</t>
-  </si>
-  <si>
-    <t>Cliente comprador, Cliente vendedor, Financeiro</t>
-  </si>
-  <si>
-    <t>Gestor de estoque, Cliente autor</t>
-  </si>
-  <si>
-    <t>Clientes em geral, atendente SAC, ouvidor, diretores e advogados do jurídico</t>
-  </si>
-  <si>
     <t>USE-CASE MODEL</t>
   </si>
   <si>
@@ -228,10 +204,73 @@
     <t>Permitir e oferecer o recurso para que quaisquer dos livros visualizados pelo usuário possa ter seu endereço eletrônico compartilhado através do facebook e twitter, independente de ter sido adquirido, e permitir comentário do usuário a respeito da referida obra neste mesmo compartilhamento, a fim de que outras pessoas, ao se interessarem por esta, possam visualizá-la na e-Books Store após devido cadastro (respeitadas e aceitas as políticas de privacidade das respectivas plataformas).</t>
   </si>
   <si>
-    <t>Permitir que o comprador visualize online e/ou faça o download da obra adquirida, através de seu histórico de compras e de aquisições gratuitas.</t>
-  </si>
-  <si>
     <t>Fazer o registro e informar ao cliente o número de protocolo, bem como conferir acesso a este e ao histórico de suas reclamações e respectivas gravações até 90 dias anteriores ao registro do evento.</t>
+  </si>
+  <si>
+    <t>Visualização de livros</t>
+  </si>
+  <si>
+    <t>Permitir que o comprador visualize online e/ou faça o download da obra adquirida, através de seu histórico de compras e de aquisições gratuitas. Permitir que o cliente visualize quaisquer livros de seu próprio repositório no site. Permitir ao gestor de estoque a visualização de qualquer livro no sistema da e-Book Store.</t>
+  </si>
+  <si>
+    <t>Encaminhar ao setor de estoque da e-Book Store as sugestões de clientes, e permitir que o gestor dê o devido retorno ao cliente.</t>
+  </si>
+  <si>
+    <t>Permitir comunicação e registros de solicitações ou reclamações de clientes com os vários setores da empresa, diretamente ao setor de estoque ou indiretamente à administração superior e direção, através do SAC e/ou ouvidoria.</t>
+  </si>
+  <si>
+    <t>Cliente, Sistema</t>
+  </si>
+  <si>
+    <t>Cliente, Gestor de estoque, Sistema</t>
+  </si>
+  <si>
+    <t>Cliente comprador, Cliente autor, Gestor de estoque, Sistema</t>
+  </si>
+  <si>
+    <t>Gestor de estoque, Cliente autor, Sistema</t>
+  </si>
+  <si>
+    <t>Cliente, Sistema, Sistemas externos: Facebook e Twitter</t>
+  </si>
+  <si>
+    <t>Cliente vendedor, Cliente comprador, Financeiro, Sistema, 
+Sistemas externos: VISA, VISANET, PayPal, NF-e (nota fiscal), Ordenamento Jurídico Brasileiro (relativo a impostos)</t>
+  </si>
+  <si>
+    <t>Clientes em geral, atendente SAC, ouvidor, diretores, advogados do jurídico, Sistema, Ordenamento Jurídico Brasileiro (relativo ao consumidor)</t>
+  </si>
+  <si>
+    <t>* Sistema = sistema próprio interno da e-Book Store</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Obs.: segundo o livro do Larman: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"This was a refinement and improvement to alternate definitions of actors, including those in early versions of the UML and UP [Cockburn97]. Older definitions inconsistently excluded the SuD as an actor, even when it called upon services of other systems. All entities may play multiple roles, including the SuD."
+Ou seja, atualmente, ao contrário de antes, considera-se ator qualquer entidade que desempenhe algum papel nos casos de uso, inclusive o próprio sistema (SuD="System under Discussion"), e em quaisquer das 3 categorias: ator primário, ator de suporte ou ator "offstage".
+Dessa forma, incluí o sistema em todos os casos de uso (seja o da e-Book Store enquanto ator primário, como também sistemas externos como Facebook, Twitter, VISA, VISANET, NF-e enquanto support systems), já que parte destes casos de uso se darão através dos vários sistemas para que os demais atores primários tenham seus papéis devidamente desempenhados e seus objetivos alcançados em cada cenário. Não há como o usuário humano, ou sequer o sistema da loja, enquanto atores isolados, realizarem nada no sistema REAL sem que também desempenhem algum papel nos casos de uso ou façam uso de sistemas externos de suporte ou de atores offstage.
+Como atores "offstage", incluí o Ordenamento Jurídico Brasileiro (referente aos direitos do consumidor, tributações, regras de SAC, etc).
+http://www.craiglarman.com/wiki/downloads/applying_uml/larman-ch6-applying-evolutionary-use-cases.pdf
+Daniel.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -279,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -317,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,13 +379,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,19 +389,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,6 +431,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -683,22 +744,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="5"/>
@@ -706,32 +767,32 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="18.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" ht="18.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -762,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -787,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
@@ -798,7 +859,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60">
@@ -806,10 +867,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60">
@@ -817,315 +878,536 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="90">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="120">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="120">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45">
+    </row>
+    <row r="19" spans="1:5" ht="45">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75">
+    </row>
+    <row r="24" spans="1:5" ht="75">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45">
+    </row>
+    <row r="25" spans="1:5" ht="45">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="21">
-      <c r="A32" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="8"/>
+    <row r="32" spans="1:5" ht="21">
+      <c r="A32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="C33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
+      <c r="C34" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
+      <c r="C36" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
+      <c r="C37" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
+      <c r="A38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="A42" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="C41" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1">
+      <c r="A44" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1"/>
+      <c r="A47" s="11"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
+      <c r="A48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="12"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="12"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
+  <mergeCells count="20">
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="C38:E40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C44:E46"/>
+    <mergeCell ref="A51:E73"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
